--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value240.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value240.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2510263501991434</v>
+        <v>1.16212522983551</v>
       </c>
       <c r="B1">
-        <v>0.2633497485327196</v>
+        <v>2.120952367782593</v>
       </c>
       <c r="C1">
-        <v>0.2950997161779469</v>
+        <v>3.445654153823853</v>
       </c>
       <c r="D1">
-        <v>0.4552847087487932</v>
+        <v>3.525397777557373</v>
       </c>
       <c r="E1">
-        <v>1.271305609584361</v>
+        <v>1.179910898208618</v>
       </c>
     </row>
   </sheetData>
